--- a/Healthcare/HIMS.xlsx
+++ b/Healthcare/HIMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8E99B3-054F-5541-B11D-A39F7610B32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851952A-1ABF-D44A-8997-4CAD6D2EABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,11 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>25.74</v>
-    <v>6.58</v>
-    <v>1.0681</v>
-    <v>2.78</v>
-    <v>0.13469</v>
+    <v>30.44</v>
+    <v>7.5</v>
+    <v>1.0754999999999999</v>
+    <v>2.54</v>
+    <v>0.12101000000000001</v>
+    <v>-0.04</v>
+    <v>-1.7000000000000001E-3</v>
     <v>USD</v>
     <v>Hims &amp; Hers Health, Inc. provides a consumer-first platform, which helps customers to fulfill their health and wellness needs. Its platform includes access to a provider network, a clinically focused electronic medical records system, digital prescriptions and cloud-enabled pharmacy fulfillment. Its digital platform enables access to treatments for a range of conditions, including sexual health, men’s and women’s dermatology, mental health, and weight loss. It connects patients to licensed healthcare professionals who can prescribe medications when appropriate. Through the Hims &amp; Hers mobile applications, consumers can access a range of educational programs, wellness content, community support, and other services. It offers access to a range of health and wellness products designed to meet individual needs, which can include curated prescription and non-prescription products. It offers pharmacy operation capabilities through its MedisourceRx, a 503B outsourcing facility in California.</v>
     <v>1046</v>
@@ -1952,24 +1954,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2269 Chestnut St, #523, SAN FRANCISCO, CA, 94123 US</v>
-    <v>24.68</v>
+    <v>23.64</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45602.933435995314</v>
+    <v>45616.04166481406</v>
     <v>0</v>
-    <v>21.36</v>
-    <v>5069170004</v>
+    <v>20.02</v>
+    <v>5140813223</v>
     <v>HIMS &amp; HERS HEALTH, INC.</v>
     <v>HIMS &amp; HERS HEALTH, INC.</v>
-    <v>21.6</v>
-    <v>53.604900000000001</v>
-    <v>20.64</v>
-    <v>23.42</v>
-    <v>216446200</v>
+    <v>20.585000000000001</v>
+    <v>53.856699999999996</v>
+    <v>20.99</v>
+    <v>23.53</v>
+    <v>23.49</v>
+    <v>218479100</v>
     <v>HIMS</v>
     <v>HIMS &amp; HERS HEALTH, INC. (XNYS:HIMS)</v>
-    <v>26143</v>
-    <v>14410022</v>
+    <v>22845338</v>
+    <v>18442916</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2001,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2021,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2037,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2048,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2120,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2171,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2178,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2845,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>23.42</v>
+        <v>23.53</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>3.4649145618591932</v>
+        <v>3.5138846363636365</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2899,7 +2920,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>230637683.94881099</v>
+        <v>232803872.81098339</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2925,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.13469</v>
+        <v>0.12101000000000001</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>23.253073412844035</v>
+        <v>23.58171203211009</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2973,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>5069170004</v>
+        <v>5140813223</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.2352436369383994E-2</v>
+        <v>3.1901567492525103E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3007,7 +3028,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>19.918756312492278</v>
+        <v>19.733416663493056</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3022,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.0681</v>
+        <v>1.0754999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3055,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.14949802252381406</v>
+        <v>-0.16135075803259435</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
